--- a/заказы/матрица Поком КИ 89 скю от 04,03,24ОВ (коррекция).xlsx
+++ b/заказы/матрица Поком КИ 89 скю от 04,03,24ОВ (коррекция).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2944D-C37E-4F06-A7AE-5DDCBFEA6AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7FAB8-55D9-4A2E-9B0C-9188336BDA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,9 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">КИ!$A$5:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">КИ!$A$5:$I$95</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
   <si>
     <t>Параметры:</t>
   </si>
@@ -456,13 +456,16 @@
     <t>в матрице</t>
   </si>
   <si>
-    <t>дубль</t>
-  </si>
-  <si>
     <t>Колбаса «Докторская оригинальная» без свинины, Особый рецепт большой батон</t>
   </si>
   <si>
     <t>введена по просьбе Луганска</t>
+  </si>
+  <si>
+    <t>Метка</t>
+  </si>
+  <si>
+    <t>не в матрице</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,20 +663,20 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9431,10 +9440,10 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9479,7 +9488,9 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
@@ -12983,13 +12994,13 @@
       <c r="B84" s="5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" s="35" t="s">
+      <c r="D84" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="33" t="s">
         <v>54</v>
       </c>
       <c r="F84" s="5"/>
@@ -13021,13 +13032,13 @@
       <c r="B85" s="5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="35" t="s">
+      <c r="D85" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F85" s="5"/>
@@ -13059,13 +13070,13 @@
       <c r="B86" s="5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="35" t="s">
+      <c r="D86" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="5"/>
@@ -13133,7 +13144,7 @@
       <c r="B88" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="29" t="s">
@@ -13205,7 +13216,7 @@
       <c r="B90" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="29" t="s">
@@ -13241,13 +13252,13 @@
       <c r="B91" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="35" t="s">
+      <c r="D91" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="33" t="s">
         <v>80</v>
       </c>
       <c r="F91" s="5"/>
@@ -13382,14 +13393,17 @@
     </row>
     <row r="95" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I94" xr:uid="{807AF40D-9FB3-457B-9DFD-D8415483FF49}"/>
+  <autoFilter ref="A5:I95" xr:uid="{807AF40D-9FB3-457B-9DFD-D8415483FF49}"/>
   <conditionalFormatting sqref="C8:C90 C92:C94">
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
